--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="13965" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -46,6 +46,9 @@
     <t>iconResId</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>selectionCount</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>图标显示资源id</t>
   </si>
   <si>
+    <t>宝箱品质（0-4对应绿色-红色）</t>
+  </si>
+  <si>
     <t>奖励选项数</t>
   </si>
   <si>
@@ -83,6 +89,30 @@
   </si>
   <si>
     <t>测试技能宝箱1介绍</t>
+  </si>
+  <si>
+    <t>测试技能宝箱2（等级）</t>
+  </si>
+  <si>
+    <t>测试技能宝箱2介绍</t>
+  </si>
+  <si>
+    <t>测试技能宝箱3（等级）</t>
+  </si>
+  <si>
+    <t>测试技能宝箱3介绍</t>
+  </si>
+  <si>
+    <t>测试技能宝箱4（等级）</t>
+  </si>
+  <si>
+    <t>测试技能宝箱4介绍</t>
+  </si>
+  <si>
+    <t>测试技能宝箱5（等级）</t>
+  </si>
+  <si>
+    <t>测试技能宝箱5介绍</t>
   </si>
 </sst>
 </file>
@@ -698,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +736,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1059,21 +1092,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="7" width="16.25" customWidth="1"/>
+    <col min="5" max="8" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,54 +1128,63 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:7">
+    <row r="3" ht="93" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1150,28 +1192,127 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>15002001</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>15002001</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>15002001</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>15002001</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>15002001</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13965" windowHeight="11670"/>
+    <workbookView windowWidth="12270" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>测试技能宝箱5介绍</t>
+  </si>
+  <si>
+    <t>测试队友宝箱</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,9 +739,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1092,13 +1092,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
@@ -1174,7 +1174,7 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
@@ -1312,6 +1312,32 @@
       </c>
       <c r="H8">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>15002001</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12270" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>测试队友宝箱</t>
+  </si>
+  <si>
+    <t>测试队友属性宝箱</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1338,6 +1341,32 @@
       </c>
       <c r="H11">
         <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>402</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>15002001</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>4001</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="17040" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17040" windowHeight="10845"/>
+    <workbookView windowWidth="15900" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>测试队友属性宝箱</t>
+  </si>
+  <si>
+    <t>升级测试宝箱</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1367,6 +1370,32 @@
       </c>
       <c r="H12">
         <v>4001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>901</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>15002001</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>9001</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15900" windowHeight="12000"/>
+    <workbookView windowWidth="17220" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>测试队友属性宝箱</t>
+  </si>
+  <si>
+    <t>测试队长属性宝箱</t>
   </si>
   <si>
     <t>升级测试宝箱</t>
@@ -1098,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1377,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>901</v>
+        <v>501</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1395,6 +1398,32 @@
         <v>3</v>
       </c>
       <c r="H15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>901</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>15002001</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
         <v>9001</v>
       </c>
     </row>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="12105"/>
+    <workbookView windowWidth="16815" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>测试队长属性宝箱</t>
+  </si>
+  <si>
+    <t>测试战银宝箱</t>
   </si>
   <si>
     <t>升级测试宝箱</t>
@@ -740,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,6 +755,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1101,10 +1107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1406,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>901</v>
+        <v>601</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1423,7 +1429,33 @@
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>901</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>15002001</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
         <v>9001</v>
       </c>
     </row>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16815" windowHeight="12105"/>
+    <workbookView windowWidth="19035" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>升级测试宝箱</t>
+  </si>
+  <si>
+    <t>专属技能测试宝箱</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1457,6 +1460,32 @@
       </c>
       <c r="H20">
         <v>9001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>902</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>15002001</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>9002</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19035" windowHeight="10395"/>
+    <workbookView windowWidth="18225" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18225" windowHeight="10395"/>
+    <workbookView windowWidth="14415" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>专属技能测试宝箱</t>
+  </si>
+  <si>
+    <t>升级技能测试</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1486,6 +1489,32 @@
       </c>
       <c r="H21">
         <v>9002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>908</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>15002001</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>9008</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14415" windowHeight="10395"/>
+    <workbookView windowWidth="16125" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1115,8 +1115,8 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16125" windowHeight="10395"/>
+    <workbookView windowWidth="15810" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>测试技能宝箱5介绍</t>
+  </si>
+  <si>
+    <t>道具测试宝箱</t>
   </si>
   <si>
     <t>测试队友宝箱</t>
@@ -1113,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1335,44 +1338,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>401</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11">
-        <v>15002001</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>4000</v>
-      </c>
-    </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>402</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>15002001</v>
@@ -1384,33 +1361,33 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>4001</v>
+        <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>501</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15">
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>401</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
         <v>15002001</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="H15">
-        <v>5000</v>
+      <c r="H16">
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1418,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>601</v>
+        <v>402</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>15002001</v>
@@ -1435,8 +1412,8 @@
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17" s="4">
-        <v>6001</v>
+      <c r="H17">
+        <v>4001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1444,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>901</v>
+        <v>501</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>15002001</v>
@@ -1462,58 +1439,110 @@
         <v>3</v>
       </c>
       <c r="H20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>601</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>15002001</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>901</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>15002001</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
         <v>9001</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
         <v>902</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21">
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26">
         <v>15002001</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>3</v>
       </c>
-      <c r="H21">
+      <c r="H26">
         <v>9002</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
         <v>908</v>
       </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23">
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28">
         <v>15002001</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>3</v>
       </c>
-      <c r="H23">
+      <c r="H28">
         <v>9008</v>
       </c>
     </row>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15810" windowHeight="10395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>测试队友属性宝箱</t>
+  </si>
+  <si>
+    <t>测试(队友数目限制宝箱)</t>
   </si>
   <si>
     <t>测试队长属性宝箱</t>
@@ -1118,8 +1121,8 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1416,6 +1419,32 @@
         <v>4001</v>
       </c>
     </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>403</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>15002001</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>4002</v>
+      </c>
+    </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>0</v>
@@ -1424,10 +1453,10 @@
         <v>501</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>15002001</v>
@@ -1450,10 +1479,10 @@
         <v>601</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>15002001</v>
@@ -1476,10 +1505,10 @@
         <v>901</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>15002001</v>
@@ -1502,10 +1531,10 @@
         <v>902</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>15002001</v>
@@ -1528,10 +1557,10 @@
         <v>908</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>15002001</v>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>升级技能测试</t>
+  </si>
+  <si>
+    <t>人口 + 增加队友 测试</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1573,6 +1576,32 @@
       </c>
       <c r="H28">
         <v>9008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>15002001</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>10001</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="14145" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1124,8 +1124,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="8685"/>
+    <workbookView windowWidth="16530" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>奖励池</t>
+  </si>
+  <si>
+    <t>通用宝箱</t>
   </si>
   <si>
     <t>测试技能宝箱1（等级）</t>
@@ -758,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +773,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1122,10 +1128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1214,278 +1220,191 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>15002001</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>15002001</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>15002001</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>15002001</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
+    <row r="16" spans="2:8">
+      <c r="B16">
         <v>102</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>15002001</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>103</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>15002001</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>104</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>15002001</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>301</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>15002001</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>401</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
       </c>
       <c r="E16">
         <v>15002001</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17">
-        <v>402</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E17">
         <v>15002001</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18">
-        <v>403</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
+        <v>104</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E18">
         <v>15002001</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>501</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20">
-        <v>15002001</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22">
-        <v>601</v>
+        <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>15002001</v>
@@ -1496,48 +1415,19 @@
       <c r="G22">
         <v>3</v>
       </c>
-      <c r="H22" s="4">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>901</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25">
-        <v>15002001</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
+      <c r="H22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26">
-        <v>902</v>
+        <v>401</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>15002001</v>
@@ -1549,21 +1439,41 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <v>9002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27">
+        <v>402</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>15002001</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28">
-        <v>908</v>
+        <v>403</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>15002001</v>
@@ -1575,32 +1485,144 @@
         <v>3</v>
       </c>
       <c r="H28">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30">
+        <v>501</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>15002001</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <v>601</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>15002001</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" s="5">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35">
+        <v>901</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>15002001</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36">
+        <v>902</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>15002001</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>9002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38">
+        <v>908</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>15002001</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
         <v>9008</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
+    <row r="41" spans="2:8">
+      <c r="B41">
+        <v>1001</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <v>15002001</v>
+      </c>
+      <c r="F41">
         <v>0</v>
       </c>
-      <c r="B31">
-        <v>1001</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31">
-        <v>15002001</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
         <v>10001</v>
       </c>
     </row>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -1130,8 +1130,8 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16530" windowHeight="10890"/>
+    <workbookView windowWidth="19755" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1130,8 +1130,8 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1246,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>100101</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="6" spans="3:4">

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19755" windowHeight="11430"/>
+    <workbookView windowWidth="16260" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>通用宝箱</t>
+  </si>
+  <si>
+    <t>关卡准备结算奖励宝箱</t>
   </si>
   <si>
     <t>测试技能宝箱1（等级）</t>
@@ -1130,8 +1133,8 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1257,9 +1260,31 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>100001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>15002001</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1102</v>
+      </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="1"/>
@@ -1286,10 +1311,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>15002001</v>
@@ -1309,10 +1334,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>15002001</v>
@@ -1332,10 +1357,10 @@
         <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>15002001</v>
@@ -1355,10 +1380,10 @@
         <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>15002001</v>
@@ -1378,10 +1403,10 @@
         <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>15002001</v>
@@ -1401,10 +1426,10 @@
         <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>15002001</v>
@@ -1424,10 +1449,10 @@
         <v>401</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>15002001</v>
@@ -1447,10 +1472,10 @@
         <v>402</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>15002001</v>
@@ -1470,10 +1495,10 @@
         <v>403</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>15002001</v>
@@ -1493,10 +1518,10 @@
         <v>501</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>15002001</v>
@@ -1516,10 +1541,10 @@
         <v>601</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>15002001</v>
@@ -1539,10 +1564,10 @@
         <v>901</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35">
         <v>15002001</v>
@@ -1562,10 +1587,10 @@
         <v>902</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>15002001</v>
@@ -1585,10 +1610,10 @@
         <v>908</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>15002001</v>
@@ -1608,10 +1633,10 @@
         <v>1001</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>15002001</v>

--- a/data_config/BattleBox.xlsx
+++ b/data_config/BattleBox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="11700"/>
+    <workbookView windowWidth="16635" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -85,10 +85,19 @@
     <t>奖励池</t>
   </si>
   <si>
+    <t>全随机通用宝箱(金币购买)</t>
+  </si>
+  <si>
+    <t>全随机通用宝箱</t>
+  </si>
+  <si>
+    <t>关卡准备阶段结算奖励宝箱</t>
+  </si>
+  <si>
+    <t>关卡准备结算奖励宝箱</t>
+  </si>
+  <si>
     <t>通用宝箱</t>
-  </si>
-  <si>
-    <t>关卡准备结算奖励宝箱</t>
   </si>
   <si>
     <t>测试技能宝箱1（等级）</t>
@@ -1131,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1237,7 +1246,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>15002001</v>
@@ -1267,11 +1276,11 @@
       <c r="B8">
         <v>100001</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E8">
         <v>15002001</v>
@@ -1283,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>1102</v>
+        <v>1001101</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -1306,314 +1315,258 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>15002001</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15">
-        <v>101</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>15002001</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16">
-        <v>102</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>15002001</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>1000</v>
-      </c>
+    <row r="14" spans="3:4">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17">
-        <v>103</v>
+        <v>11111111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>15002001</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>100001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>15002001</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>15002001</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18">
-        <v>104</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18">
-        <v>15002001</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22">
-        <v>301</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <v>15002001</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3000</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26">
-        <v>401</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E26">
         <v>15002001</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27">
-        <v>402</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
+        <v>102</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E27">
         <v>15002001</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
-        <v>4001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28">
-        <v>403</v>
-      </c>
-      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>15002001</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>15002001</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33">
+        <v>301</v>
+      </c>
+      <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="E28">
-        <v>15002001</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30">
-        <v>501</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E33">
+        <v>15002001</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37">
+        <v>401</v>
+      </c>
+      <c r="C37" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="E30">
-        <v>15002001</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32">
-        <v>601</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32">
-        <v>15002001</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32" s="5">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35">
-        <v>901</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35">
-        <v>15002001</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36">
-        <v>902</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36">
-        <v>15002001</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <v>9002</v>
+      <c r="E37">
+        <v>15002001</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>4000</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38">
-        <v>908</v>
+        <v>402</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>15002001</v>
@@ -1625,29 +1578,167 @@
         <v>3</v>
       </c>
       <c r="H38">
-        <v>9008</v>
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39">
+        <v>403</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39">
+        <v>15002001</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>4002</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41">
+        <v>501</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41">
+        <v>15002001</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43">
+        <v>601</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>15002001</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43" s="5">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46">
+        <v>901</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46">
+        <v>15002001</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47">
+        <v>902</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>15002001</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>9002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49">
+        <v>908</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49">
+        <v>15002001</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52">
         <v>1001</v>
       </c>
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41">
-        <v>15002001</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>15002001</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
         <v>10001</v>
       </c>
     </row>
